--- a/COS60011 - Technology Design Project/Deliverable_2/Bias_table.xlsx
+++ b/COS60011 - Technology Design Project/Deliverable_2/Bias_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arunr\Music\Swinburne_Study\Sem_2\COS60011 - Technology Design Project\Deliverable_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFF9035A-3D9C-4B33-AFF0-F07F6B26A719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E3CEE3-FA0A-41D7-BD2E-D5BC17E66A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{20D367C1-D9BF-4E4F-9D49-5864DA2AE817}"/>
   </bookViews>
@@ -597,13 +597,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C25EA88B-D086-446B-846D-5EC1BF38F0A7}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
       <selection sqref="A1:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="13.9296875" customWidth="1"/>
+    <col min="2" max="2" width="6.86328125" customWidth="1"/>
+    <col min="3" max="3" width="7.265625" customWidth="1"/>
+    <col min="4" max="4" width="57.86328125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.15" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -617,7 +623,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="236.25" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -631,7 +637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="194.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:4" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -645,7 +651,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="180.75" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:4" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -659,7 +665,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="222.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:4" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -673,7 +679,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="194.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:4" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
@@ -687,7 +693,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="236.25" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:4" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
@@ -701,7 +707,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="236.25" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:4" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
@@ -715,7 +721,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="222.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:4" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
@@ -729,7 +735,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="208.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:4" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
@@ -743,7 +749,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="236.25" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:4" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
@@ -757,7 +763,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="208.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:4" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="3" t="s">
         <v>24</v>
       </c>
@@ -771,7 +777,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="236.25" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:4" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="3" t="s">
         <v>26</v>
       </c>
@@ -785,7 +791,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="264" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:4" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="3" t="s">
         <v>28</v>
       </c>
@@ -799,7 +805,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="236.25" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:4" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="3" t="s">
         <v>30</v>
       </c>
@@ -813,7 +819,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="291.75" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:4" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="3" t="s">
         <v>32</v>
       </c>
